--- a/src/test/resources/inventory_data/InventoryData.xlsx
+++ b/src/test/resources/inventory_data/InventoryData.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Load" sheetId="4" r:id="rId1"/>
-    <sheet name="Employees-2" sheetId="3" r:id="rId2"/>
+    <sheet name="Load In" sheetId="6" r:id="rId2"/>
+    <sheet name="Settlement" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,34 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>E-mail</t>
-  </si>
-  <si>
-    <t>Moe</t>
-  </si>
-  <si>
-    <t>Meh</t>
-  </si>
-  <si>
-    <t>Torstesn22</t>
-  </si>
-  <si>
-    <t>frings22@yahoo.com</t>
-  </si>
-  <si>
-    <t>mahmoud86@gmail.com</t>
-  </si>
-  <si>
-    <t>mohannad91@gmail.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="27">
   <si>
     <t>Item Code</t>
   </si>
@@ -62,13 +36,79 @@
   </si>
   <si>
     <t>Carton</t>
+  </si>
+  <si>
+    <t>New Quantity</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Pack</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Denomination</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Coins</t>
+  </si>
+  <si>
+    <t>Cash Value</t>
+  </si>
+  <si>
+    <t>Cheque Value</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>26585.38</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>45.38</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,14 +120,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -110,25 +142,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -409,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,47 +452,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>4001</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4">
-        <v>711</v>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>800</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>4002</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4">
-        <v>235</v>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>4002</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4">
-        <v>22</v>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -469,70 +502,798 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="1" max="2" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>4001</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>4002</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>158</v>
+      </c>
+      <c r="D3" s="3">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>4002</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4003</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>4003</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>4004</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>4004</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>4005</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>4005</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>4006</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>4006</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>666</v>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>4006</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>4007</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>4008</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>4008</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>4009</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>4009</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>4010</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>4010</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>4010</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>4011</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>4011</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>4011</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>4012</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>4013</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>4013</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>4014</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>4014</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>4015</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>4015</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>4015</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>4016</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>4016</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>4016</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>4017</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>4017</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>4018</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>4018</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>4019</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>4019</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>4020</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>4021</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>4021</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>4022</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>4023</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>4023</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>4024</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>4024</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>4041</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>4042</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>4043</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>4044</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>5002</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>5003</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>5004</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>5004</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>5005</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>5006</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>5008</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>100</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>50</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/inventory_data/InventoryData.xlsx
+++ b/src/test/resources/inventory_data/InventoryData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="26">
   <si>
     <t>Item Code</t>
   </si>
@@ -80,28 +80,25 @@
     <t>1</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
     <t>20000</t>
   </si>
   <si>
-    <t>26585.38</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>45.38</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>28002.08</t>
+  </si>
+  <si>
+    <t>52.08</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -502,10 +499,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="A5:F5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,25 +532,25 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2">
         <v>4001</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5">
-        <v>76</v>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3">
         <v>4002</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5">
-        <v>158</v>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>167</v>
       </c>
       <c r="D3" s="3">
         <v>40</v>
@@ -562,28 +559,28 @@
         <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4">
         <v>4002</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5">
         <v>4003</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -597,607 +594,585 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6">
         <v>4003</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7">
         <v>4004</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8">
         <v>4004</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9">
         <v>4005</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10">
         <v>4005</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11">
         <v>4006</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12">
         <v>4006</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13">
         <v>4006</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14">
         <v>4007</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15">
         <v>4008</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16">
         <v>4008</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17">
         <v>4009</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="5">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18">
         <v>4009</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19">
         <v>4010</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="5">
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20">
         <v>4010</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="5">
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21">
         <v>4010</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22">
         <v>4011</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="5">
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23">
         <v>4011</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="5">
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24">
         <v>4011</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25">
         <v>4012</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="5">
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26">
         <v>4013</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="5">
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27">
         <v>4013</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27">
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28">
         <v>4014</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="5">
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29">
         <v>4014</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29">
         <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30">
         <v>4015</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="5">
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31">
         <v>4015</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="5">
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32">
         <v>4015</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33">
         <v>4016</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="5">
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="A34">
         <v>4016</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="5">
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="A35">
         <v>4016</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35">
         <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="A36">
         <v>4017</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="5">
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+      <c r="A37">
         <v>4017</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="5">
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="A38">
         <v>4018</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="5">
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+      <c r="A39">
         <v>4018</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="5">
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+      <c r="A40">
         <v>4019</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="5">
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+      <c r="A41">
         <v>4019</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="5">
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41">
         <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+      <c r="A42">
         <v>4020</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="5">
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42">
         <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+      <c r="A43">
         <v>4021</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="5">
-        <v>1</v>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
+      <c r="A44">
         <v>4021</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="5">
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+      <c r="A45">
         <v>4022</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="5">
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
+      <c r="A46">
         <v>4023</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="5">
-        <v>93</v>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+      <c r="A47">
         <v>4023</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="5">
-        <v>76</v>
+      <c r="C47">
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
-        <v>4024</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="5">
-        <v>2</v>
+      <c r="A48">
+        <v>4041</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
-        <v>4024</v>
-      </c>
-      <c r="B49" s="5" t="s">
+      <c r="A49">
+        <v>4042</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4043</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>4044</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>5002</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>5003</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>5004</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54">
         <v>8</v>
       </c>
-      <c r="C49" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
-        <v>4041</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
-        <v>4042</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
-        <v>4043</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
-        <v>4044</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
-        <v>5002</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="5">
-        <v>7</v>
-      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
-        <v>5003</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="5">
-        <v>9</v>
+      <c r="A55">
+        <v>5004</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
-        <v>5004</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="5">
+      <c r="A56">
+        <v>5005</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>5006</v>
+      </c>
+      <c r="B57" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
-        <v>5004</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="5">
-        <v>40</v>
+      <c r="C57">
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
-        <v>5005</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
-        <v>5006</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
+      <c r="A58">
         <v>5008</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="5">
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58">
         <v>2</v>
       </c>
     </row>
@@ -1234,7 +1209,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1242,7 +1217,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1250,7 +1225,7 @@
         <v>100</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1274,7 +1249,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1290,7 +1265,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/inventory_data/InventoryData.xlsx
+++ b/src/test/resources/inventory_data/InventoryData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Load" sheetId="4" r:id="rId1"/>
@@ -83,9 +83,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>20000</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>18000</t>
   </si>
 </sst>
 </file>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>208</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -550,7 +550,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>167</v>
+        <v>284</v>
       </c>
       <c r="D3" s="3">
         <v>40</v>
@@ -570,7 +570,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1186,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,7 +1209,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1225,7 +1225,7 @@
         <v>100</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1241,7 +1241,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1249,7 +1249,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1257,7 +1257,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1265,7 +1265,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/inventory_data/InventoryData.xlsx
+++ b/src/test/resources/inventory_data/InventoryData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Load" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="27">
   <si>
     <t>Item Code</t>
   </si>
@@ -83,22 +83,25 @@
     <t>5</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>28002.08</t>
-  </si>
-  <si>
     <t>52.08</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>18000</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>7842.08</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1186,7 +1189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1209,7 +1212,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1217,7 +1220,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1225,7 +1228,7 @@
         <v>100</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1241,7 +1244,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1249,7 +1252,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1257,7 +1260,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1265,7 +1268,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
